--- a/utils/localisation_script/excel_to_json/gu/Gujarati Mar 25th content.xlsx
+++ b/utils/localisation_script/excel_to_json/gu/Gujarati Mar 25th content.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/gu/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4071837C-870B-124A-B6BA-1AC87D71BA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mar 25th content" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Mar 25th content" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -21,9 +26,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>&lt;Target language&gt;</t>
   </si>
   <si>
     <t>Recording page</t>
@@ -72,7 +74,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">@BoloIndia</t>
+      <t>@BoloIndia</t>
     </r>
   </si>
   <si>
@@ -101,7 +103,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">લેવલ</t>
+      <t>લેવલ</t>
     </r>
     <r>
       <rPr>
@@ -109,7 +111,7 @@
         <rFont val="Open Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">- “X”</t>
+      <t>- “X”</t>
     </r>
   </si>
   <si>
@@ -123,7 +125,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">(</t>
+      <t>(</t>
     </r>
     <r>
       <rPr>
@@ -147,7 +149,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">માન્યતા</t>
+      <t>માન્યતા</t>
     </r>
     <r>
       <rPr>
@@ -155,7 +157,7 @@
         <rFont val="Open Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">)</t>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -180,7 +182,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">વાક્યો</t>
+      <t>વાક્યો</t>
     </r>
   </si>
   <si>
@@ -248,7 +250,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">વાહ</t>
+      <t>વાહ</t>
     </r>
     <r>
       <rPr>
@@ -266,7 +268,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">તમે તમારો “</t>
+      <t>તમે તમારો “</t>
     </r>
     <r>
       <rPr>
@@ -275,7 +277,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -284,18 +286,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">લો” બેજ મેળવ્યો છે</t>
+      <t>લો” બેજ મેળવ્યો છે</t>
     </r>
   </si>
   <si>
-    <t>Your next goal is to reach "X" sentences to unlock your "Y" Badge. </t>
+    <t>Your next goal is to reach "X" sentences to unlock your "Y" Badge.</t>
   </si>
   <si>
     <t>"x" is numeric , "Y" is rank e.g Ist , 2nd</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">તમારું આગામી લક્ષ્ય તમારા “</t>
+      <t>તમારું આગામી લક્ષ્ય તમારા “</t>
     </r>
     <r>
       <rPr>
@@ -313,7 +315,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">બેજ સુધી પહોંચવા માટે “</t>
+      <t>બેજ સુધી પહોંચવા માટે “</t>
     </r>
     <r>
       <rPr>
@@ -331,7 +333,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">વાક્યો સુધી પહોંચવાનું છે</t>
+      <t>વાક્યો સુધી પહોંચવાનું છે</t>
     </r>
     <r>
       <rPr>
@@ -340,7 +342,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -356,7 +358,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">વાક્યનો ફાળો આપ્યો</t>
+      <t>વાક્યનો ફાળો આપ્યો</t>
     </r>
   </si>
   <si>
@@ -392,7 +394,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">એ હિન્દી ભાષા માટે ઓપન સોર્સ ભંડાર વિકસાવવા માટે ફાળો આપ્યો છે</t>
+      <t>એ હિન્દી ભાષા માટે ઓપન સોર્સ ભંડાર વિકસાવવા માટે ફાળો આપ્યો છે</t>
     </r>
     <r>
       <rPr>
@@ -400,7 +402,7 @@
         <rFont val="Open Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
@@ -467,17 +469,17 @@
     <t>અન્ય લોકો બોલ્યા હોય તેને માન્યતા આપવા માટે કાર્ડ પર ક્લિક કરો</t>
   </si>
   <si>
-    <t> </t>
+    <t/>
+  </si>
+  <si>
+    <t>Gujarati</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -486,22 +488,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF980000"/>
       <name val="Open Sans"/>
@@ -565,7 +552,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -573,101 +560,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -726,67 +651,377 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:Z71"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F49" activeCellId="0" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.42857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="32.4234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.7142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="78.8520408163265"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.1428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="14.4285714285714"/>
+    <col min="1" max="1" width="5.5"/>
+    <col min="2" max="2" width="23.1640625"/>
+    <col min="3" max="3" width="32.5"/>
+    <col min="4" max="4" width="50.6640625"/>
+    <col min="5" max="5" width="31.1640625"/>
+    <col min="6" max="6" width="78.83203125"/>
+    <col min="7" max="7" width="27.1640625"/>
+    <col min="8" max="1025" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+    <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="5" t="s">
         <v>0</v>
       </c>
@@ -794,30 +1029,30 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -845,22 +1080,22 @@
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>7</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -883,22 +1118,22 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -921,7 +1156,7 @@
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -949,7 +1184,7 @@
       <c r="Y6" s="8"/>
       <c r="Z6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -977,18 +1212,18 @@
       <c r="Y7" s="8"/>
       <c r="Z7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -1011,16 +1246,16 @@
       <c r="Y8" s="8"/>
       <c r="Z8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -1043,16 +1278,16 @@
       <c r="Y9" s="8"/>
       <c r="Z9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1075,16 +1310,16 @@
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1107,18 +1342,18 @@
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1141,16 +1376,16 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1173,16 +1408,16 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1205,16 +1440,16 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -1237,18 +1472,18 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -1271,16 +1506,16 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -1303,16 +1538,16 @@
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -1335,16 +1570,16 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -1367,16 +1602,16 @@
       <c r="Y19" s="8"/>
       <c r="Z19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -1399,16 +1634,16 @@
       <c r="Y20" s="8"/>
       <c r="Z20" s="8"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -1431,16 +1666,16 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1463,16 +1698,16 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -1495,16 +1730,16 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1527,16 +1762,16 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="8"/>
       <c r="F25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1559,16 +1794,16 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -1591,7 +1826,7 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1619,18 +1854,18 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -1653,7 +1888,7 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1681,18 +1916,18 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="F30" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -1715,7 +1950,7 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1743,18 +1978,18 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -1777,7 +2012,7 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1805,7 +2040,7 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1833,18 +2068,18 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -1867,18 +2102,18 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
       <c r="D36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="12" t="s">
         <v>65</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -1901,7 +2136,7 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1929,16 +2164,16 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -1961,16 +2196,16 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -1993,7 +2228,7 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2021,18 +2256,18 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -2055,16 +2290,16 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2087,16 +2322,16 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2119,16 +2354,16 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:26" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -2151,16 +2386,16 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -2183,16 +2418,16 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2215,16 +2450,16 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2247,16 +2482,16 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
@@ -2279,7 +2514,7 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2307,7 +2542,7 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2335,7 +2570,7 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2363,7 +2598,7 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2391,7 +2626,7 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2419,7 +2654,7 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2447,7 +2682,7 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2475,7 +2710,7 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2503,7 +2738,7 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2531,7 +2766,7 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2559,7 +2794,7 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2587,7 +2822,7 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2615,7 +2850,7 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2643,7 +2878,7 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2671,7 +2906,7 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2699,7 +2934,7 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2727,7 +2962,7 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2755,7 +2990,7 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -2783,7 +3018,7 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -2811,7 +3046,7 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -2839,7 +3074,7 @@
       <c r="Y68" s="8"/>
       <c r="Z68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -2867,7 +3102,7 @@
       <c r="Y69" s="8"/>
       <c r="Z69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A70" s="8"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -2895,13 +3130,13 @@
       <c r="Y70" s="8"/>
       <c r="Z70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:26" ht="14" x14ac:dyDescent="0.2">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -2929,12 +3164,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>